--- a/tests/test_file.xlsx
+++ b/tests/test_file.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/8080b3f1d930f92d/MyCode/donations/tests/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D34D0387-D635-4A85-AD42-C32C8216B80B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="5" documentId="8_{D34D0387-D635-4A85-AD42-C32C8216B80B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E3F03FD4-D9A7-494D-B51D-86A08AC9B9B2}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{C15367E6-8CCD-4981-B45E-A521E6287A20}"/>
   </bookViews>
@@ -33,6 +33,17 @@
     </ext>
   </extLst>
 </workbook>
+</file>
+
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+  <si>
+    <t>Column1</t>
+  </si>
+  <si>
+    <t>Column2</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -382,48 +393,57 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D112CF9B-7DB6-429C-A119-C6714D4E587E}">
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
         <v>1</v>
-      </c>
-      <c r="B1">
-        <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B2">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B3">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5">
         <v>4</v>
       </c>
-      <c r="B4">
+      <c r="B5">
         <v>8</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
